--- a/End-to-End Sales Analytics Dashboard in Excel.xlsx
+++ b/End-to-End Sales Analytics Dashboard in Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel(YouTube)\Mini Projects\Sales Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F2D693-CEA9-42E2-A13E-98A649B36A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B71EBF-6DEE-4695-980B-E3EBF88ED6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="853" activeTab="2" xr2:uid="{5450221A-C57F-47C6-9768-1389976DFA65}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="853" activeTab="3" xr2:uid="{5450221A-C57F-47C6-9768-1389976DFA65}"/>
   </bookViews>
   <sheets>
     <sheet name=" Sales Performance Analysis" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId5"/>
+    <pivotCache cacheId="16" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -388,8 +388,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -403,12 +411,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -440,8 +442,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -502,30 +510,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -564,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -573,42 +557,71 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -685,24 +698,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -850,13 +845,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -7014,7 +7002,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Pc" refreshedDate="46018.825777662038" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="50" xr:uid="{56293911-5C9A-4E34-8F70-25120C991FD3}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Pc" refreshedDate="46018.844775115744" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="50" xr:uid="{56293911-5C9A-4E34-8F70-25120C991FD3}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H51" sheet="Raw Data"/>
   </cacheSource>
@@ -7665,7 +7653,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D68F1AE-3CD5-4C2E-BB98-E466208DFAEB}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D68F1AE-3CD5-4C2E-BB98-E466208DFAEB}" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -7828,7 +7816,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D0CB5976-1E99-4DD0-AE43-3380782DCB3F}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D0CB5976-1E99-4DD0-AE43-3380782DCB3F}" name="PivotTable3" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A20:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -7972,7 +7960,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7BCF9395-4B15-4E8A-B70D-88191B53C72F}" name="PivotTable4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7BCF9395-4B15-4E8A-B70D-88191B53C72F}" name="PivotTable4" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A30:B73" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -8255,7 +8243,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B8E5DE3B-8BEA-4BCD-9E5C-F7BB05686E02}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B8E5DE3B-8BEA-4BCD-9E5C-F7BB05686E02}" name="PivotTable3" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A38:C50" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="10">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -8412,7 +8400,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7F9FB3C8-4F45-49B4-8A57-A78516A9608D}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7F9FB3C8-4F45-49B4-8A57-A78516A9608D}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:C16" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="10">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -8574,7 +8562,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2736852E-61E3-4C08-B0FE-22FD77EC818D}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2736852E-61E3-4C08-B0FE-22FD77EC818D}" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A21:C32" firstHeaderRow="2" firstDataRow="2" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -8741,7 +8729,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1547F704-0F06-491B-AA0B-0C141C6FC255}" name="PivotTable4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1547F704-0F06-491B-AA0B-0C141C6FC255}" name="PivotTable4" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="D3:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -8926,7 +8914,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{91173844-BD82-4DF7-9BF7-7683D5BA8AB4}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{91173844-BD82-4DF7-9BF7-7683D5BA8AB4}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -9154,17 +9142,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D0C13BF-D728-43EC-AE6F-228284392F8A}" name="Table1" displayName="Table1" ref="A1:H51" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D0C13BF-D728-43EC-AE6F-228284392F8A}" name="Table1" displayName="Table1" ref="A1:H51" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="A1:H51" xr:uid="{9D0C13BF-D728-43EC-AE6F-228284392F8A}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{469E8AEB-10CD-4D1B-B73F-F0CC32DDBBDF}" name="Transaction_ID" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{A88B03E4-6888-4E36-A100-A113AD19EEAA}" name="Date" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{0C8D71C1-32BB-45F4-8083-B9FF4E480581}" name="Customer_Name" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{DFCAA60B-CB0A-43CC-A0C4-611D2F0DFFB5}" name="Product" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{A16C3538-6F23-466E-9EE2-98D77757DA6B}" name="Units_Sold" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{FA220E7E-BA50-441F-99BE-1B2326400FF4}" name="Price_Per_Unit" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{43833A0C-2D38-4517-9672-19A6FA07535B}" name="Total_Sales" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{A6C67E44-A00B-431F-9E24-A5A17A7616C5}" name="City" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{469E8AEB-10CD-4D1B-B73F-F0CC32DDBBDF}" name="Transaction_ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{A88B03E4-6888-4E36-A100-A113AD19EEAA}" name="Date" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{0C8D71C1-32BB-45F4-8083-B9FF4E480581}" name="Customer_Name" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{DFCAA60B-CB0A-43CC-A0C4-611D2F0DFFB5}" name="Product" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{A16C3538-6F23-466E-9EE2-98D77757DA6B}" name="Units_Sold" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{FA220E7E-BA50-441F-99BE-1B2326400FF4}" name="Price_Per_Unit" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{43833A0C-2D38-4517-9672-19A6FA07535B}" name="Total_Sales" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{A6C67E44-A00B-431F-9E24-A5A17A7616C5}" name="City" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9597,7 +9585,7 @@
       <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="19">
         <v>1310326</v>
       </c>
     </row>
@@ -9605,7 +9593,7 @@
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="19">
         <v>1574952</v>
       </c>
     </row>
@@ -9613,7 +9601,7 @@
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="19">
         <v>779147</v>
       </c>
     </row>
@@ -9621,7 +9609,7 @@
       <c r="A24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="19">
         <v>372564</v>
       </c>
     </row>
@@ -9629,7 +9617,7 @@
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="19">
         <v>667071</v>
       </c>
     </row>
@@ -9637,7 +9625,7 @@
       <c r="A26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="19">
         <v>742576</v>
       </c>
     </row>
@@ -9645,7 +9633,7 @@
       <c r="A27" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="19">
         <v>5446636</v>
       </c>
     </row>
@@ -9661,7 +9649,7 @@
       <c r="A31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="19">
         <v>1284633</v>
       </c>
     </row>
@@ -9669,7 +9657,7 @@
       <c r="A32" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="19">
         <v>706249</v>
       </c>
     </row>
@@ -9677,7 +9665,7 @@
       <c r="A33" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="19">
         <v>167207</v>
       </c>
     </row>
@@ -9685,7 +9673,7 @@
       <c r="A34" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="19">
         <v>161435</v>
       </c>
     </row>
@@ -9693,33 +9681,33 @@
       <c r="A35" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="19">
         <v>137370</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="19">
         <v>61998</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="19">
         <v>50374</v>
       </c>
     </row>
@@ -9727,7 +9715,7 @@
       <c r="A38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B38" s="19">
         <v>914546</v>
       </c>
     </row>
@@ -9735,7 +9723,7 @@
       <c r="A39" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="19">
         <v>320610</v>
       </c>
     </row>
@@ -9743,7 +9731,7 @@
       <c r="A40" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="19">
         <v>273352</v>
       </c>
     </row>
@@ -9751,7 +9739,7 @@
       <c r="A41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B41" s="19">
         <v>217980</v>
       </c>
     </row>
@@ -9759,7 +9747,7 @@
       <c r="A42" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B42" s="19">
         <v>102604</v>
       </c>
     </row>
@@ -9767,7 +9755,7 @@
       <c r="A43" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="20">
+      <c r="B43" s="19">
         <v>789260</v>
       </c>
     </row>
@@ -9775,7 +9763,7 @@
       <c r="A44" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B44" s="19">
         <v>446493</v>
       </c>
     </row>
@@ -9783,7 +9771,7 @@
       <c r="A45" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="19">
         <v>141524</v>
       </c>
     </row>
@@ -9791,7 +9779,7 @@
       <c r="A46" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="20">
+      <c r="B46" s="19">
         <v>134198</v>
       </c>
     </row>
@@ -9799,7 +9787,7 @@
       <c r="A47" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="19">
         <v>51258</v>
       </c>
     </row>
@@ -9807,7 +9795,7 @@
       <c r="A48" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="19">
         <v>15787</v>
       </c>
     </row>
@@ -9815,7 +9803,7 @@
       <c r="A49" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B49" s="19">
         <v>610280</v>
       </c>
     </row>
@@ -9823,7 +9811,7 @@
       <c r="A50" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="20">
+      <c r="B50" s="19">
         <v>225652</v>
       </c>
     </row>
@@ -9831,7 +9819,7 @@
       <c r="A51" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="20">
+      <c r="B51" s="19">
         <v>202950</v>
       </c>
     </row>
@@ -9839,7 +9827,7 @@
       <c r="A52" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="20">
+      <c r="B52" s="19">
         <v>161638</v>
       </c>
     </row>
@@ -9847,7 +9835,7 @@
       <c r="A53" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="20">
+      <c r="B53" s="19">
         <v>20040</v>
       </c>
     </row>
@@ -9855,7 +9843,7 @@
       <c r="A54" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="20">
+      <c r="B54" s="19">
         <v>568090</v>
       </c>
     </row>
@@ -9863,7 +9851,7 @@
       <c r="A55" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="19">
         <v>290873</v>
       </c>
     </row>
@@ -9871,7 +9859,7 @@
       <c r="A56" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B56" s="20">
+      <c r="B56" s="19">
         <v>231037</v>
       </c>
     </row>
@@ -9879,7 +9867,7 @@
       <c r="A57" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="20">
+      <c r="B57" s="19">
         <v>46180</v>
       </c>
     </row>
@@ -9887,7 +9875,7 @@
       <c r="A58" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="20">
+      <c r="B58" s="19">
         <v>478503</v>
       </c>
     </row>
@@ -9895,7 +9883,7 @@
       <c r="A59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="20">
+      <c r="B59" s="19">
         <v>223109</v>
       </c>
     </row>
@@ -9903,7 +9891,7 @@
       <c r="A60" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B60" s="20">
+      <c r="B60" s="19">
         <v>91402</v>
       </c>
     </row>
@@ -9911,7 +9899,7 @@
       <c r="A61" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B61" s="20">
+      <c r="B61" s="19">
         <v>82420</v>
       </c>
     </row>
@@ -9919,7 +9907,7 @@
       <c r="A62" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="20">
+      <c r="B62" s="19">
         <v>81572</v>
       </c>
     </row>
@@ -9927,7 +9915,7 @@
       <c r="A63" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B63" s="20">
+      <c r="B63" s="19">
         <v>442055</v>
       </c>
     </row>
@@ -9935,7 +9923,7 @@
       <c r="A64" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B64" s="20">
+      <c r="B64" s="19">
         <v>218355</v>
       </c>
     </row>
@@ -9943,7 +9931,7 @@
       <c r="A65" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="20">
+      <c r="B65" s="19">
         <v>107080</v>
       </c>
     </row>
@@ -9951,7 +9939,7 @@
       <c r="A66" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B66" s="20">
+      <c r="B66" s="19">
         <v>79932</v>
       </c>
     </row>
@@ -9959,7 +9947,7 @@
       <c r="A67" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="20">
+      <c r="B67" s="19">
         <v>36688</v>
       </c>
     </row>
@@ -9967,7 +9955,7 @@
       <c r="A68" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="20">
+      <c r="B68" s="19">
         <v>359269</v>
       </c>
     </row>
@@ -9975,7 +9963,7 @@
       <c r="A69" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="20">
+      <c r="B69" s="19">
         <v>116480</v>
       </c>
     </row>
@@ -9983,7 +9971,7 @@
       <c r="A70" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B70" s="20">
+      <c r="B70" s="19">
         <v>115240</v>
       </c>
     </row>
@@ -9991,7 +9979,7 @@
       <c r="A71" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B71" s="20">
+      <c r="B71" s="19">
         <v>78772</v>
       </c>
     </row>
@@ -9999,7 +9987,7 @@
       <c r="A72" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B72" s="20">
+      <c r="B72" s="19">
         <v>48777</v>
       </c>
     </row>
@@ -10007,7 +9995,7 @@
       <c r="A73" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B73" s="20">
+      <c r="B73" s="19">
         <v>5446636</v>
       </c>
     </row>
@@ -10066,7 +10054,7 @@
       <c r="B5" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>939465</v>
       </c>
     </row>
@@ -10074,7 +10062,7 @@
       <c r="B6" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>289187</v>
       </c>
     </row>
@@ -10082,7 +10070,7 @@
       <c r="B7" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>826019</v>
       </c>
     </row>
@@ -10090,7 +10078,7 @@
       <c r="B8" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>810905</v>
       </c>
     </row>
@@ -10098,7 +10086,7 @@
       <c r="B9" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>263200</v>
       </c>
     </row>
@@ -10106,7 +10094,7 @@
       <c r="B10" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <v>341811</v>
       </c>
     </row>
@@ -10114,7 +10102,7 @@
       <c r="B11" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>441195</v>
       </c>
     </row>
@@ -10122,7 +10110,7 @@
       <c r="B12" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>618079</v>
       </c>
     </row>
@@ -10130,7 +10118,7 @@
       <c r="B13" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>618881</v>
       </c>
     </row>
@@ -10138,7 +10126,7 @@
       <c r="B14" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>297894</v>
       </c>
     </row>
@@ -10146,7 +10134,7 @@
       <c r="A15" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="19">
         <v>5446636</v>
       </c>
     </row>
@@ -10154,7 +10142,7 @@
       <c r="A16" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="19">
         <v>5446636</v>
       </c>
     </row>
@@ -10189,7 +10177,7 @@
       <c r="B23" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="19">
         <v>939465</v>
       </c>
     </row>
@@ -10197,7 +10185,7 @@
       <c r="B24" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="19">
         <v>1228652</v>
       </c>
     </row>
@@ -10205,7 +10193,7 @@
       <c r="B25" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="19">
         <v>2054671</v>
       </c>
     </row>
@@ -10213,7 +10201,7 @@
       <c r="B26" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="19">
         <v>2865576</v>
       </c>
     </row>
@@ -10221,7 +10209,7 @@
       <c r="B27" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="19">
         <v>3128776</v>
       </c>
     </row>
@@ -10229,7 +10217,7 @@
       <c r="B28" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="19">
         <v>3470587</v>
       </c>
     </row>
@@ -10237,7 +10225,7 @@
       <c r="B29" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="19">
         <v>3911782</v>
       </c>
     </row>
@@ -10245,7 +10233,7 @@
       <c r="B30" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="19">
         <v>4529861</v>
       </c>
     </row>
@@ -10253,7 +10241,7 @@
       <c r="B31" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="19">
         <v>5148742</v>
       </c>
     </row>
@@ -10261,7 +10249,7 @@
       <c r="B32" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="19">
         <v>5446636</v>
       </c>
     </row>
@@ -10288,7 +10276,7 @@
       <c r="B40" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="19">
         <v>939465</v>
       </c>
     </row>
@@ -10296,7 +10284,7 @@
       <c r="B41" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="19">
         <v>289187</v>
       </c>
     </row>
@@ -10304,33 +10292,33 @@
       <c r="B42" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="19">
         <v>826019</v>
       </c>
-      <c r="N42" s="10" t="s">
+      <c r="N42" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="19">
         <v>810905</v>
       </c>
-      <c r="N43" s="10" t="s">
+      <c r="N43" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="19">
         <v>263200</v>
       </c>
     </row>
@@ -10338,7 +10326,7 @@
       <c r="B45" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="19">
         <v>341811</v>
       </c>
     </row>
@@ -10346,7 +10334,7 @@
       <c r="B46" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="19">
         <v>441195</v>
       </c>
     </row>
@@ -10354,7 +10342,7 @@
       <c r="B47" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="19">
         <v>618079</v>
       </c>
     </row>
@@ -10362,7 +10350,7 @@
       <c r="B48" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="19">
         <v>618881</v>
       </c>
     </row>
@@ -10370,7 +10358,7 @@
       <c r="B49" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="19">
         <v>297894</v>
       </c>
     </row>
@@ -10378,7 +10366,7 @@
       <c r="A50" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="19">
         <v>5446636</v>
       </c>
     </row>
@@ -10388,9 +10376,9 @@
     <mergeCell ref="N43:P43"/>
   </mergeCells>
   <conditionalFormatting sqref="B40:B49">
-    <cfRule type="top10" dxfId="4" priority="1" rank="1"/>
-    <cfRule type="top10" dxfId="3" priority="2" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="3" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
@@ -10408,7 +10396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3401EF43-EB11-4C8D-9CAB-D197F0937156}">
   <dimension ref="A3:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -10446,7 +10434,7 @@
       <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>9</v>
       </c>
     </row>
@@ -10460,7 +10448,7 @@
       <c r="D5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>7</v>
       </c>
     </row>
@@ -10474,7 +10462,7 @@
       <c r="D6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>6</v>
       </c>
     </row>
@@ -10488,7 +10476,7 @@
       <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>6</v>
       </c>
     </row>
@@ -10502,7 +10490,7 @@
       <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>6</v>
       </c>
     </row>
@@ -10516,7 +10504,7 @@
       <c r="D9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>6</v>
       </c>
     </row>
@@ -10530,7 +10518,7 @@
       <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>5</v>
       </c>
     </row>
@@ -10544,7 +10532,7 @@
       <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <v>3</v>
       </c>
     </row>
@@ -10558,7 +10546,7 @@
       <c r="D12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <v>2</v>
       </c>
     </row>
@@ -10572,15 +10560,15 @@
       <c r="D13" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="18"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
@@ -10627,10 +10615,10 @@
     <mergeCell ref="A15:B15"/>
   </mergeCells>
   <conditionalFormatting pivot="1" sqref="B4:B12">
-    <cfRule type="top10" dxfId="1" priority="2" rank="5"/>
+    <cfRule type="top10" dxfId="3" priority="2" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="E4:E12">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10643,8 +10631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74D6079-E82B-46DB-9812-C175B8EE4585}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10660,33 +10648,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2">
@@ -10707,12 +10695,12 @@
       <c r="G2" s="1">
         <v>50374</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2">
@@ -10733,12 +10721,12 @@
       <c r="G3" s="1">
         <v>39672</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="2">
@@ -10759,12 +10747,12 @@
       <c r="G4" s="1">
         <v>63075</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="2">
@@ -10785,12 +10773,12 @@
       <c r="G5" s="1">
         <v>46180</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="2">
@@ -10811,12 +10799,12 @@
       <c r="G6" s="1">
         <v>22955</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="2">
@@ -10837,12 +10825,12 @@
       <c r="G7" s="1">
         <v>20040</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="2">
@@ -10863,12 +10851,12 @@
       <c r="G8" s="1">
         <v>225652</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="2">
@@ -10889,12 +10877,12 @@
       <c r="G9" s="1">
         <v>202950</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="2">
@@ -10915,12 +10903,12 @@
       <c r="G10" s="1">
         <v>62268</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="2">
@@ -10941,12 +10929,12 @@
       <c r="G11" s="1">
         <v>144252</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="2">
@@ -10967,12 +10955,12 @@
       <c r="G12" s="1">
         <v>396720</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="2">
@@ -10993,12 +10981,12 @@
       <c r="G13" s="1">
         <v>123456</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="2">
@@ -11019,12 +11007,12 @@
       <c r="G14" s="1">
         <v>137370</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="2">
@@ -11045,12 +11033,12 @@
       <c r="G15" s="1">
         <v>218355</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="2">
@@ -11071,12 +11059,12 @@
       <c r="G16" s="1">
         <v>273352</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B17" s="2">
@@ -11097,12 +11085,12 @@
       <c r="G17" s="1">
         <v>40482</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="2">
@@ -11123,12 +11111,12 @@
       <c r="G18" s="1">
         <v>217980</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="2">
@@ -11149,12 +11137,12 @@
       <c r="G19" s="1">
         <v>15787</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="2">
@@ -11175,12 +11163,12 @@
       <c r="G20" s="1">
         <v>115240</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="2">
@@ -11201,12 +11189,12 @@
       <c r="G21" s="1">
         <v>78345</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="2">
@@ -11227,12 +11215,12 @@
       <c r="G22" s="1">
         <v>120740</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="2">
@@ -11253,12 +11241,12 @@
       <c r="G23" s="1">
         <v>49773</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="2">
@@ -11279,12 +11267,12 @@
       <c r="G24" s="1">
         <v>79932</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="2">
@@ -11305,12 +11293,12 @@
       <c r="G25" s="1">
         <v>103395</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="2">
@@ -11331,12 +11319,12 @@
       <c r="G26" s="1">
         <v>83090</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="2">
@@ -11357,12 +11345,12 @@
       <c r="G27" s="1">
         <v>41905</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B28" s="2">
@@ -11383,12 +11371,12 @@
       <c r="G28" s="1">
         <v>489920</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B29" s="2">
@@ -11409,12 +11397,12 @@
       <c r="G29" s="1">
         <v>191492</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B30" s="2">
@@ -11435,12 +11423,12 @@
       <c r="G30" s="1">
         <v>116480</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B31" s="2">
@@ -11461,12 +11449,12 @@
       <c r="G31" s="1">
         <v>10778</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B32" s="2">
@@ -11487,12 +11475,12 @@
       <c r="G32" s="1">
         <v>107080</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="H32" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B33" s="2">
@@ -11513,12 +11501,12 @@
       <c r="G33" s="1">
         <v>62932</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B34" s="2">
@@ -11539,12 +11527,12 @@
       <c r="G34" s="1">
         <v>78772</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B35" s="2">
@@ -11565,12 +11553,12 @@
       <c r="G35" s="1">
         <v>36688</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="H35" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B36" s="2">
@@ -11591,12 +11579,12 @@
       <c r="G36" s="1">
         <v>189132</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="H36" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B37" s="2">
@@ -11617,12 +11605,12 @@
       <c r="G37" s="1">
         <v>13458</v>
       </c>
-      <c r="H37" s="12" t="s">
+      <c r="H37" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B38" s="2">
@@ -11643,12 +11631,12 @@
       <c r="G38" s="1">
         <v>51258</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="H38" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B39" s="2">
@@ -11669,12 +11657,12 @@
       <c r="G39" s="1">
         <v>5292</v>
       </c>
-      <c r="H39" s="12" t="s">
+      <c r="H39" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="9" t="s">
         <v>69</v>
       </c>
       <c r="B40" s="2">
@@ -11695,12 +11683,12 @@
       <c r="G40" s="1">
         <v>61998</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B41" s="2">
@@ -11721,12 +11709,12 @@
       <c r="G41" s="1">
         <v>81572</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="H41" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="9" t="s">
         <v>71</v>
       </c>
       <c r="B42" s="2">
@@ -11747,12 +11735,12 @@
       <c r="G42" s="1">
         <v>165530</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H42" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="9" t="s">
         <v>72</v>
       </c>
       <c r="B43" s="2">
@@ -11773,12 +11761,12 @@
       <c r="G43" s="1">
         <v>83476</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H43" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B44" s="2">
@@ -11799,12 +11787,12 @@
       <c r="G44" s="1">
         <v>48777</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H44" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B45" s="2">
@@ -11825,12 +11813,12 @@
       <c r="G45" s="1">
         <v>31617</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="9" t="s">
         <v>75</v>
       </c>
       <c r="B46" s="2">
@@ -11851,12 +11839,12 @@
       <c r="G46" s="1">
         <v>102156</v>
       </c>
-      <c r="H46" s="12" t="s">
+      <c r="H46" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="9" t="s">
         <v>76</v>
       </c>
       <c r="B47" s="2">
@@ -11877,12 +11865,12 @@
       <c r="G47" s="1">
         <v>38182</v>
       </c>
-      <c r="H47" s="12" t="s">
+      <c r="H47" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="2">
@@ -11903,12 +11891,12 @@
       <c r="G48" s="1">
         <v>82420</v>
       </c>
-      <c r="H48" s="12" t="s">
+      <c r="H48" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B49" s="2">
@@ -11929,12 +11917,12 @@
       <c r="G49" s="1">
         <v>7926</v>
       </c>
-      <c r="H49" s="12" t="s">
+      <c r="H49" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B50" s="2">
@@ -11955,33 +11943,33 @@
       <c r="G50" s="1">
         <v>95750</v>
       </c>
-      <c r="H50" s="12" t="s">
+      <c r="H50" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="12">
         <v>45305</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="13">
         <v>10</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="13">
         <v>32061</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="13">
         <v>320610</v>
       </c>
-      <c r="H51" s="19" t="s">
+      <c r="H51" s="14" t="s">
         <v>11</v>
       </c>
     </row>
